--- a/output/senior/6_count.xlsx
+++ b/output/senior/6_count.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>ans_str</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
   <si>
     <t>['A_G', 'B_G', 'D_G', 'E_G', 'F_G']</t>
@@ -401,89 +404,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="C6">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
     </row>

--- a/output/senior/6_count.xlsx
+++ b/output/senior/6_count.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>list</t>
   </si>
@@ -22,6 +22,9 @@
     <t>count</t>
   </si>
   <si>
+    <t>success</t>
+  </si>
+  <si>
     <t>['A_G', 'B_G', 'D_G', 'E_G', 'F_G']</t>
   </si>
   <si>
@@ -47,6 +50,12 @@
   </si>
   <si>
     <t>['C_G']</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -404,117 +413,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>383</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
